--- a/data tegangan.xlsx
+++ b/data tegangan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\MGI\air\PT.MGI-air\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\MGI\I-dasWmeter\PT.MGI-air\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>V ADS1115</t>
   </si>
@@ -65,10 +65,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,11 +487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1162841152"/>
-        <c:axId val="1162834080"/>
+        <c:axId val="1942245712"/>
+        <c:axId val="1942254416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1162841152"/>
+        <c:axId val="1942245712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,12 +548,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162834080"/>
+        <c:crossAx val="1942254416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1162834080"/>
+        <c:axId val="1942254416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,7 +610,663 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162841152"/>
+        <c:crossAx val="1942245712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.13</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.21</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.47</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.83</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1942240816"/>
+        <c:axId val="1942241360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1942240816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1942241360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1942241360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1942240816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -696,6 +1355,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1212,20 +1911,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1239,6 +2454,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1510,10 +2755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1522,15 +2767,21 @@
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -1541,8 +2792,14 @@
         <f>6.5078*B2+0.0321</f>
         <v>10.054112</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10.5</v>
       </c>
@@ -1553,8 +2810,14 @@
         <f t="shared" ref="C3:C42" si="0">6.5078*B3+0.0321</f>
         <v>10.574736</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -1565,8 +2828,14 @@
         <f t="shared" si="0"/>
         <v>10.965203999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>11.5</v>
       </c>
@@ -1577,8 +2846,14 @@
         <f t="shared" si="0"/>
         <v>11.550905999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G5">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>12</v>
       </c>
@@ -1589,8 +2864,14 @@
         <f t="shared" si="0"/>
         <v>12.006451999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>12.5</v>
       </c>
@@ -1601,8 +2882,14 @@
         <f t="shared" si="0"/>
         <v>12.527075999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G7">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>13</v>
       </c>
@@ -1613,8 +2900,14 @@
         <f t="shared" si="0"/>
         <v>12.982621999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>13.5</v>
       </c>
@@ -1625,8 +2918,14 @@
         <f t="shared" si="0"/>
         <v>13.503245999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F9" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G9">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>14</v>
       </c>
@@ -1637,8 +2936,14 @@
         <f t="shared" si="0"/>
         <v>14.023869999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>14.5</v>
       </c>
@@ -1649,8 +2954,14 @@
         <f t="shared" si="0"/>
         <v>14.479416000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F11" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G11">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>15</v>
       </c>
@@ -1661,8 +2972,14 @@
         <f t="shared" si="0"/>
         <v>15.000039999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>15.5</v>
       </c>
@@ -1673,8 +2990,14 @@
         <f t="shared" si="0"/>
         <v>15.455586</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F13" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G13">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -1685,8 +3008,14 @@
         <f>6.5078*B14+0.0321</f>
         <v>15.97621</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F14" s="2">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>16.5</v>
       </c>
@@ -1697,8 +3026,14 @@
         <f t="shared" si="0"/>
         <v>16.496833999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F15" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G15">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -1709,8 +3044,14 @@
         <f t="shared" si="0"/>
         <v>17.017457999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F16" s="2">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>17.5</v>
       </c>
@@ -1721,8 +3062,14 @@
         <f t="shared" si="0"/>
         <v>17.473004</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F17" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="G17">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1733,8 +3080,14 @@
         <f t="shared" si="0"/>
         <v>17.993627999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F18" s="2">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18.5</v>
       </c>
@@ -1745,8 +3098,14 @@
         <f t="shared" si="0"/>
         <v>18.449173999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F19" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1757,8 +3116,14 @@
         <f t="shared" si="0"/>
         <v>18.969798000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F20" s="2">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19.5</v>
       </c>
@@ -1769,8 +3134,14 @@
         <f t="shared" si="0"/>
         <v>19.490421999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F21" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="G21">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1781,8 +3152,14 @@
         <f t="shared" si="0"/>
         <v>20.011045999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F22" s="1">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20.5</v>
       </c>
@@ -1793,8 +3170,14 @@
         <f t="shared" si="0"/>
         <v>20.466591999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F23" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="G23">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1805,8 +3188,14 @@
         <f t="shared" si="0"/>
         <v>21.052294</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F24" s="1">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21.5</v>
       </c>
@@ -1817,8 +3206,14 @@
         <f t="shared" si="0"/>
         <v>21.442761999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F25" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="G25">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1829,8 +3224,14 @@
         <f t="shared" si="0"/>
         <v>21.963386</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F26" s="1">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>22.5</v>
       </c>
@@ -1841,8 +3242,14 @@
         <f t="shared" si="0"/>
         <v>22.484009999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F27" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G27">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -1853,8 +3260,14 @@
         <f t="shared" si="0"/>
         <v>22.939556</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F28" s="1">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>23.5</v>
       </c>
@@ -1865,8 +3278,14 @@
         <f t="shared" si="0"/>
         <v>23.460179999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F29" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="G29">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -1877,8 +3296,14 @@
         <f t="shared" si="0"/>
         <v>24.045881999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F30" s="1">
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>24.5</v>
       </c>
@@ -1889,8 +3314,14 @@
         <f t="shared" si="0"/>
         <v>24.501427999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F31" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="G31">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>25</v>
       </c>
@@ -1901,8 +3332,14 @@
         <f t="shared" si="0"/>
         <v>25.022051999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F32" s="1">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>25.5</v>
       </c>
@@ -1913,8 +3350,14 @@
         <f t="shared" si="0"/>
         <v>25.477598</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F33" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="G33">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -1925,8 +3368,14 @@
         <f t="shared" si="0"/>
         <v>25.998221999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F34" s="1">
+        <v>16</v>
+      </c>
+      <c r="G34">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>26.5</v>
       </c>
@@ -1937,8 +3386,14 @@
         <f t="shared" si="0"/>
         <v>26.518846</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F35" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="G35">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>27</v>
       </c>
@@ -1949,8 +3404,14 @@
         <f t="shared" si="0"/>
         <v>27.039470000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F36" s="1">
+        <v>17</v>
+      </c>
+      <c r="G36">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>27.5</v>
       </c>
@@ -1961,8 +3422,14 @@
         <f t="shared" si="0"/>
         <v>27.495015999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F37" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="G37">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>28</v>
       </c>
@@ -1973,8 +3440,14 @@
         <f t="shared" si="0"/>
         <v>27.950561999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F38" s="1">
+        <v>18</v>
+      </c>
+      <c r="G38">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>28.5</v>
       </c>
@@ -1985,8 +3458,14 @@
         <f t="shared" si="0"/>
         <v>28.471185999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F39" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="G39">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>29</v>
       </c>
@@ -1997,8 +3476,14 @@
         <f t="shared" si="0"/>
         <v>28.991809999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F40" s="1">
+        <v>19</v>
+      </c>
+      <c r="G40">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>29.5</v>
       </c>
@@ -2009,8 +3494,14 @@
         <f t="shared" si="0"/>
         <v>29.577511999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F41" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="G41">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>30</v>
       </c>
@@ -2021,6 +3512,184 @@
         <f t="shared" si="0"/>
         <v>30.098136</v>
       </c>
+      <c r="F42" s="1">
+        <v>20</v>
+      </c>
+      <c r="G42">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F43" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="G43">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F44" s="1">
+        <v>21</v>
+      </c>
+      <c r="G44">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F45" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="G45">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F46" s="1">
+        <v>22</v>
+      </c>
+      <c r="G46">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F47" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="G47">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F48" s="1">
+        <v>23</v>
+      </c>
+      <c r="G48">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="G49">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F50" s="1">
+        <v>24</v>
+      </c>
+      <c r="G50">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F51" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="G51">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F52" s="1">
+        <v>25</v>
+      </c>
+      <c r="G52">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F53" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="G53">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F54" s="1">
+        <v>26</v>
+      </c>
+      <c r="G54">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F55" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="G55">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F56" s="1">
+        <v>27</v>
+      </c>
+      <c r="G56">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F57" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="G57">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F58" s="1">
+        <v>28</v>
+      </c>
+      <c r="G58">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="G59">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F60" s="1">
+        <v>29</v>
+      </c>
+      <c r="G60">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F61" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="G61">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F62" s="1">
+        <v>30</v>
+      </c>
+      <c r="G62">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F66" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
